--- a/output/tn_closure_summary.xlsx
+++ b/output/tn_closure_summary.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -411,23 +411,23 @@
         </is>
       </c>
       <c r="C2">
-        <v>220</v>
+        <v>520</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Dickson County</t>
+          <t>Lincoln County</t>
         </is>
       </c>
       <c r="E2">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Dickson County Adult High School</t>
+          <t>Blanche School</t>
         </is>
       </c>
       <c r="G2" s="2">
-        <v>44312</v>
+        <v>44377</v>
       </c>
     </row>
     <row r="3">
@@ -440,19 +440,19 @@
         </is>
       </c>
       <c r="C3">
-        <v>520</v>
+        <v>820</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Lincoln County</t>
+          <t>Sullivan County</t>
         </is>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Blanche School</t>
+          <t>Colonial Heights Middle School</t>
         </is>
       </c>
       <c r="G3" s="2">
@@ -477,11 +477,11 @@
         </is>
       </c>
       <c r="E4">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Colonial Heights Middle School</t>
+          <t>Sullivan Central High School</t>
         </is>
       </c>
       <c r="G4" s="2">
@@ -506,11 +506,11 @@
         </is>
       </c>
       <c r="E5">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Sullivan Central High School</t>
+          <t>Blountville Middle School</t>
         </is>
       </c>
       <c r="G5" s="2">
@@ -535,11 +535,11 @@
         </is>
       </c>
       <c r="E6">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Blountville Middle School</t>
+          <t>Holston Middle School</t>
         </is>
       </c>
       <c r="G6" s="2">
@@ -564,11 +564,11 @@
         </is>
       </c>
       <c r="E7">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Holston Middle School</t>
+          <t>North Middle School</t>
         </is>
       </c>
       <c r="G7" s="2">
@@ -593,11 +593,11 @@
         </is>
       </c>
       <c r="E8">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>North Middle School</t>
+          <t>Sullivan South High School</t>
         </is>
       </c>
       <c r="G8" s="2">
@@ -614,19 +614,19 @@
         </is>
       </c>
       <c r="C9">
-        <v>820</v>
+        <v>798</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Sullivan County</t>
+          <t>Millington</t>
         </is>
       </c>
       <c r="E9">
-        <v>183</v>
+        <v>78</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Sullivan South High School</t>
+          <t>EA Harrold Elementary</t>
         </is>
       </c>
       <c r="G9" s="2">
@@ -651,11 +651,11 @@
         </is>
       </c>
       <c r="E10">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>EA Harrold Elementary</t>
+          <t>Millington Middle</t>
         </is>
       </c>
       <c r="G10" s="2">
@@ -672,19 +672,19 @@
         </is>
       </c>
       <c r="C11">
-        <v>798</v>
+        <v>986</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Millington</t>
+          <t>State Board of Ed</t>
         </is>
       </c>
       <c r="E11">
-        <v>133</v>
+        <v>8005</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Millington Middle</t>
+          <t>Bluff City High School</t>
         </is>
       </c>
       <c r="G11" s="2">
@@ -701,19 +701,19 @@
         </is>
       </c>
       <c r="C12">
-        <v>986</v>
+        <v>600</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>State Board of Ed</t>
+          <t>Maury</t>
         </is>
       </c>
       <c r="E12">
-        <v>8005</v>
+        <v>55</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Bluff City High School</t>
+          <t>McDowell Elementary</t>
         </is>
       </c>
       <c r="G12" s="2">
@@ -730,19 +730,19 @@
         </is>
       </c>
       <c r="C13">
-        <v>986</v>
+        <v>50</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>State Board of Ed</t>
+          <t>Blount County</t>
         </is>
       </c>
       <c r="E13">
-        <v>8015</v>
+        <v>30</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>KIPP Antioch College Prep Elementary</t>
+          <t>Eagleton Middle School</t>
         </is>
       </c>
       <c r="G13" s="2">
@@ -759,19 +759,19 @@
         </is>
       </c>
       <c r="C14">
-        <v>986</v>
+        <v>430</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>State Board of Ed</t>
+          <t>Humphreys</t>
         </is>
       </c>
       <c r="E14">
-        <v>8020</v>
+        <v>13</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>KIPP Antioch College Prep Middle</t>
+          <t>McEwen Junior High</t>
         </is>
       </c>
       <c r="G14" s="2">
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C15">
-        <v>600</v>
+        <v>330</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Maury</t>
+          <t>Hamilton</t>
         </is>
       </c>
       <c r="E15">
-        <v>55</v>
+        <v>159</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>McDowell Elementary</t>
+          <t>Lakeside Academy</t>
         </is>
       </c>
       <c r="G15" s="2">
@@ -817,19 +817,19 @@
         </is>
       </c>
       <c r="C16">
-        <v>50</v>
+        <v>370</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Blount County</t>
+          <t>Hawkins</t>
         </is>
       </c>
       <c r="E16">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Eagleton Middle School</t>
+          <t>McPheeter's Bend Elementary</t>
         </is>
       </c>
       <c r="G16" s="2">
@@ -846,19 +846,19 @@
         </is>
       </c>
       <c r="C17">
-        <v>430</v>
+        <v>370</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Humphreys</t>
+          <t>Hawkins</t>
         </is>
       </c>
       <c r="E17">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>McEwen Junior High</t>
+          <t>Keplar Elementary</t>
         </is>
       </c>
       <c r="G17" s="2">
@@ -867,7 +867,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -875,28 +875,28 @@
         </is>
       </c>
       <c r="C18">
-        <v>330</v>
+        <v>820</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Hamilton</t>
+          <t>Sullivan</t>
         </is>
       </c>
       <c r="E18">
-        <v>159</v>
+        <v>25</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Lakeside Academy</t>
+          <t>Blountville Elementary</t>
         </is>
       </c>
       <c r="G18" s="2">
-        <v>44377</v>
+        <v>44594</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -904,28 +904,28 @@
         </is>
       </c>
       <c r="C19">
-        <v>370</v>
+        <v>820</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Hawkins</t>
+          <t>Sullivan</t>
         </is>
       </c>
       <c r="E19">
-        <v>60</v>
+        <v>182</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>McPheeter's Bend Elementary</t>
+          <t>Sullivan North High School</t>
         </is>
       </c>
       <c r="G19" s="2">
-        <v>44377</v>
+        <v>44594</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -933,23 +933,23 @@
         </is>
       </c>
       <c r="C20">
-        <v>370</v>
+        <v>820</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Hawkins</t>
+          <t>Sullivan</t>
         </is>
       </c>
       <c r="E20">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Keplar Elementary</t>
+          <t>Holston Valley Middle School</t>
         </is>
       </c>
       <c r="G20" s="2">
-        <v>44377</v>
+        <v>44594</v>
       </c>
     </row>
     <row r="21">
@@ -970,11 +970,11 @@
         </is>
       </c>
       <c r="E21">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Blountville Elementary</t>
+          <t>Bluff City Middle School</t>
         </is>
       </c>
       <c r="G21" s="2">
@@ -991,23 +991,23 @@
         </is>
       </c>
       <c r="C22">
-        <v>820</v>
+        <v>220</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Sullivan</t>
+          <t>Dickson</t>
         </is>
       </c>
       <c r="E22">
-        <v>182</v>
+        <v>60</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Sullivan North High School</t>
+          <t>Sullivan Central Elementary School</t>
         </is>
       </c>
       <c r="G22" s="2">
-        <v>44594</v>
+        <v>44742</v>
       </c>
     </row>
     <row r="23">
@@ -1020,23 +1020,23 @@
         </is>
       </c>
       <c r="C23">
-        <v>820</v>
+        <v>80</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Sullivan</t>
+          <t>Cannon County</t>
         </is>
       </c>
       <c r="E23">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Holston Valley Middle School</t>
+          <t>Short Mountain Elementary</t>
         </is>
       </c>
       <c r="G23" s="2">
-        <v>44594</v>
+        <v>44742</v>
       </c>
     </row>
     <row r="24">
@@ -1049,23 +1049,23 @@
         </is>
       </c>
       <c r="C24">
-        <v>820</v>
+        <v>80</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Sullivan</t>
+          <t>Cannon County</t>
         </is>
       </c>
       <c r="E24">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Bluff City Middle School</t>
+          <t>East Side Elementary</t>
         </is>
       </c>
       <c r="G24" s="2">
-        <v>44594</v>
+        <v>44742</v>
       </c>
     </row>
     <row r="25">
@@ -1078,23 +1078,23 @@
         </is>
       </c>
       <c r="C25">
-        <v>670</v>
+        <v>80</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Overton</t>
+          <t>Cannon County</t>
         </is>
       </c>
       <c r="E25">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Overton Adult High School</t>
+          <t>Auburn Elementary</t>
         </is>
       </c>
       <c r="G25" s="2">
-        <v>44629</v>
+        <v>44742</v>
       </c>
     </row>
     <row r="26">
@@ -1107,19 +1107,19 @@
         </is>
       </c>
       <c r="C26">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Dickson</t>
+          <t>Cannon County</t>
         </is>
       </c>
       <c r="E26">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Sullivan Central Elementary School</t>
+          <t>West Side Elementary</t>
         </is>
       </c>
       <c r="G26" s="2">
@@ -1144,11 +1144,11 @@
         </is>
       </c>
       <c r="E27">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Short Mountain Elementary</t>
+          <t>Woodbury Grammar</t>
         </is>
       </c>
       <c r="G27" s="2">
@@ -1173,11 +1173,11 @@
         </is>
       </c>
       <c r="E28">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>East Side Elementary</t>
+          <t>Woodland Elementary</t>
         </is>
       </c>
       <c r="G28" s="2">
@@ -1194,11 +1194,11 @@
         </is>
       </c>
       <c r="C29">
-        <v>80</v>
+        <v>985</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Cannon County</t>
+          <t>Achievement School District</t>
         </is>
       </c>
       <c r="E29">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Auburn Elementary</t>
+          <t>Corning Achievement Elementary</t>
         </is>
       </c>
       <c r="G29" s="2">
@@ -1223,19 +1223,19 @@
         </is>
       </c>
       <c r="C30">
-        <v>80</v>
+        <v>985</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Cannon County</t>
+          <t>Achievement School District</t>
         </is>
       </c>
       <c r="E30">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>West Side Elementary</t>
+          <t>Frayser Achievement Elementary</t>
         </is>
       </c>
       <c r="G30" s="2">
@@ -1252,19 +1252,19 @@
         </is>
       </c>
       <c r="C31">
-        <v>80</v>
+        <v>985</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Cannon County</t>
+          <t>Achievement School District</t>
         </is>
       </c>
       <c r="E31">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Woodbury Grammar</t>
+          <t>Georgian Hills Achievement Elementary School</t>
         </is>
       </c>
       <c r="G31" s="2">
@@ -1281,11 +1281,11 @@
         </is>
       </c>
       <c r="C32">
-        <v>80</v>
+        <v>985</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Cannon County</t>
+          <t>Achievement School District</t>
         </is>
       </c>
       <c r="E32">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Woodland Elementary</t>
+          <t>Pathways in Education - TN</t>
         </is>
       </c>
       <c r="G32" s="2">
@@ -1318,11 +1318,11 @@
         </is>
       </c>
       <c r="E33">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Corning Achievement Elementary</t>
+          <t>Whitney Achievement Elementary School</t>
         </is>
       </c>
       <c r="G33" s="2">
@@ -1347,11 +1347,11 @@
         </is>
       </c>
       <c r="E34">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Frayser Achievement Elementary</t>
+          <t>Pathways in Education - Whitehaven</t>
         </is>
       </c>
       <c r="G34" s="2">
@@ -1368,19 +1368,19 @@
         </is>
       </c>
       <c r="C35">
-        <v>985</v>
+        <v>792</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Achievement School District</t>
+          <t>Memphis-Shelby</t>
         </is>
       </c>
       <c r="E35">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Georgian Hills Achievement Elementary School</t>
+          <t>Dexter Middle</t>
         </is>
       </c>
       <c r="G35" s="2">
@@ -1397,19 +1397,19 @@
         </is>
       </c>
       <c r="C36">
-        <v>985</v>
+        <v>792</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Achievement School District</t>
+          <t>Memphis-Shelby</t>
         </is>
       </c>
       <c r="E36">
-        <v>45</v>
+        <v>2020</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Pathways in Education - TN</t>
+          <t>Alton Elementary</t>
         </is>
       </c>
       <c r="G36" s="2">
@@ -1426,19 +1426,19 @@
         </is>
       </c>
       <c r="C37">
-        <v>985</v>
+        <v>792</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Achievement School District</t>
+          <t>Memphis-Shelby</t>
         </is>
       </c>
       <c r="E37">
-        <v>20</v>
+        <v>2640</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Whitney Achievement Elementary School</t>
+          <t>Shady Grove Elementary</t>
         </is>
       </c>
       <c r="G37" s="2">
@@ -1455,28 +1455,28 @@
         </is>
       </c>
       <c r="C38">
-        <v>985</v>
+        <v>670</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Achievement School District</t>
+          <t>Overton County</t>
         </is>
       </c>
       <c r="E38">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Pathways in Education - Whitehaven</t>
+          <t>R.E.A.C.H. Academy</t>
         </is>
       </c>
       <c r="G38" s="2">
-        <v>44742</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1484,28 +1484,28 @@
         </is>
       </c>
       <c r="C39">
-        <v>792</v>
+        <v>541</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Memphis-Shelby</t>
+          <t>Athens City</t>
         </is>
       </c>
       <c r="E39">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Dexter Middle</t>
+          <t>City Park Elementary</t>
         </is>
       </c>
       <c r="G39" s="2">
-        <v>44742</v>
+        <v>45107</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1513,28 +1513,28 @@
         </is>
       </c>
       <c r="C40">
-        <v>792</v>
+        <v>541</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Memphis-Shelby</t>
+          <t>Athens City</t>
         </is>
       </c>
       <c r="E40">
-        <v>2020</v>
+        <v>20</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Alton Elementary</t>
+          <t>Ingleside Elementary</t>
         </is>
       </c>
       <c r="G40" s="2">
-        <v>44742</v>
+        <v>45107</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1542,28 +1542,28 @@
         </is>
       </c>
       <c r="C41">
-        <v>792</v>
+        <v>541</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Memphis-Shelby</t>
+          <t>Athens City</t>
         </is>
       </c>
       <c r="E41">
-        <v>2640</v>
+        <v>25</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Shady Grove Elementary</t>
+          <t>North City Elementary</t>
         </is>
       </c>
       <c r="G41" s="2">
-        <v>44742</v>
+        <v>45107</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1571,23 +1571,23 @@
         </is>
       </c>
       <c r="C42">
-        <v>670</v>
+        <v>541</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Overton County</t>
+          <t>Athens City</t>
         </is>
       </c>
       <c r="E42">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>R.E.A.C.H. Academy</t>
+          <t>Westside Elementary</t>
         </is>
       </c>
       <c r="G42" s="2">
-        <v>44817</v>
+        <v>45107</v>
       </c>
     </row>
     <row r="43">
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C43">
-        <v>541</v>
+        <v>190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Athens City</t>
+          <t>Davidson County</t>
         </is>
       </c>
       <c r="E43">
-        <v>10</v>
+        <v>340</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>City Park Elementary</t>
+          <t>Hillwood High</t>
         </is>
       </c>
       <c r="G43" s="2">
@@ -1629,19 +1629,19 @@
         </is>
       </c>
       <c r="C44">
-        <v>541</v>
+        <v>780</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Athens City</t>
+          <t>Sevier County</t>
         </is>
       </c>
       <c r="E44">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Ingleside Elementary</t>
+          <t>Sevierville Middle School</t>
         </is>
       </c>
       <c r="G44" s="2">
@@ -1658,23 +1658,23 @@
         </is>
       </c>
       <c r="C45">
-        <v>541</v>
+        <v>310</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Athens City</t>
+          <t>Grundy County</t>
         </is>
       </c>
       <c r="E45">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>North City Elementary</t>
+          <t>Palmer Elementary</t>
         </is>
       </c>
       <c r="G45" s="2">
-        <v>45107</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="46">
@@ -1687,23 +1687,23 @@
         </is>
       </c>
       <c r="C46">
-        <v>541</v>
+        <v>310</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Athens City</t>
+          <t>Grundy County</t>
         </is>
       </c>
       <c r="E46">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Westside Elementary</t>
+          <t>Grundy Academy</t>
         </is>
       </c>
       <c r="G46" s="2">
-        <v>45107</v>
+        <v>44998</v>
       </c>
     </row>
     <row r="47">
@@ -1716,19 +1716,19 @@
         </is>
       </c>
       <c r="C47">
-        <v>190</v>
+        <v>470</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Davidson County</t>
+          <t>Knox County</t>
         </is>
       </c>
       <c r="E47">
-        <v>340</v>
+        <v>245</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Hillwood High</t>
+          <t>Sam E. Hill Primary School</t>
         </is>
       </c>
       <c r="G47" s="2">
@@ -1745,19 +1745,19 @@
         </is>
       </c>
       <c r="C48">
-        <v>780</v>
+        <v>100</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Sevier County</t>
+          <t>Carter County</t>
         </is>
       </c>
       <c r="E48">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Sevierville Middle School</t>
+          <t>Keenburg Elementary</t>
         </is>
       </c>
       <c r="G48" s="2">
@@ -1774,23 +1774,23 @@
         </is>
       </c>
       <c r="C49">
-        <v>310</v>
+        <v>900</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Grundy County</t>
+          <t>Washington</t>
         </is>
       </c>
       <c r="E49">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Palmer Elementary</t>
+          <t>Jonesborough Elementary</t>
         </is>
       </c>
       <c r="G49" s="2">
-        <v>44998</v>
+        <v>45107</v>
       </c>
     </row>
     <row r="50">
@@ -1803,23 +1803,23 @@
         </is>
       </c>
       <c r="C50">
-        <v>310</v>
+        <v>900</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Grundy County</t>
+          <t>Washington</t>
         </is>
       </c>
       <c r="E50">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Grundy Academy</t>
+          <t>Jonesborough Middle School</t>
         </is>
       </c>
       <c r="G50" s="2">
-        <v>44998</v>
+        <v>45107</v>
       </c>
     </row>
     <row r="51">
@@ -1832,19 +1832,19 @@
         </is>
       </c>
       <c r="C51">
-        <v>470</v>
+        <v>400</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Knox County</t>
+          <t>Henry County</t>
         </is>
       </c>
       <c r="E51">
-        <v>245</v>
+        <v>34</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Sam E. Hill Primary School</t>
+          <t>Lakewood Middle School</t>
         </is>
       </c>
       <c r="G51" s="2">
@@ -1861,28 +1861,28 @@
         </is>
       </c>
       <c r="C52">
-        <v>100</v>
+        <v>310</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Carter County</t>
+          <t>Grundy County Schools</t>
         </is>
       </c>
       <c r="E52">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Keenburg Elementary</t>
+          <t>Coalmont Elementary</t>
         </is>
       </c>
       <c r="G52" s="2">
-        <v>45107</v>
+        <v>45188</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1890,28 +1890,28 @@
         </is>
       </c>
       <c r="C53">
-        <v>900</v>
+        <v>630</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Washington</t>
+          <t>Montgomery</t>
         </is>
       </c>
       <c r="E53">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Jonesborough Elementary</t>
+          <t>St. Bethlehem Elementary</t>
         </is>
       </c>
       <c r="G53" s="2">
-        <v>45107</v>
+        <v>45473</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -1919,28 +1919,28 @@
         </is>
       </c>
       <c r="C54">
-        <v>900</v>
+        <v>630</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Washington</t>
+          <t>Montgomery</t>
         </is>
       </c>
       <c r="E54">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Jonesborough Middle School</t>
+          <t>Burt Elementary</t>
         </is>
       </c>
       <c r="G54" s="2">
-        <v>45107</v>
+        <v>45473</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -1948,28 +1948,28 @@
         </is>
       </c>
       <c r="C55">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Henry County</t>
+          <t>Carter County</t>
         </is>
       </c>
       <c r="E55">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Lakewood Middle School</t>
+          <t>Little Milligan</t>
         </is>
       </c>
       <c r="G55" s="2">
-        <v>45107</v>
+        <v>45473</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -1977,23 +1977,23 @@
         </is>
       </c>
       <c r="C56">
-        <v>310</v>
+        <v>370</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Grundy County Schools</t>
+          <t>Hawkins</t>
         </is>
       </c>
       <c r="E56">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Coalmont Elementary</t>
+          <t>Church Hill Intermediate School</t>
         </is>
       </c>
       <c r="G56" s="2">
-        <v>45188</v>
+        <v>45473</v>
       </c>
     </row>
     <row r="57">
@@ -2006,19 +2006,19 @@
         </is>
       </c>
       <c r="C57">
-        <v>630</v>
+        <v>792</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Montgomery</t>
+          <t>Memphis - Shelby</t>
         </is>
       </c>
       <c r="E57">
-        <v>80</v>
+        <v>2724</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>St. Bethlehem Elementary</t>
+          <t>University High School</t>
         </is>
       </c>
       <c r="G57" s="2">
@@ -2035,19 +2035,19 @@
         </is>
       </c>
       <c r="C58">
-        <v>630</v>
+        <v>792</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Montgomery</t>
+          <t>Memphis - Shelby</t>
         </is>
       </c>
       <c r="E58">
-        <v>10</v>
+        <v>2726</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Burt Elementary</t>
+          <t>University Middle School</t>
         </is>
       </c>
       <c r="G58" s="2">
@@ -2064,138 +2064,22 @@
         </is>
       </c>
       <c r="C59">
-        <v>100</v>
+        <v>792</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Carter County</t>
+          <t>Memphis - Shelby</t>
         </is>
       </c>
       <c r="E59">
-        <v>55</v>
+        <v>2070</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Little Milligan</t>
+          <t>Campus School</t>
         </is>
       </c>
       <c r="G59" s="2">
-        <v>45473</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60">
-        <v>2024</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Public</t>
-        </is>
-      </c>
-      <c r="C60">
-        <v>370</v>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Hawkins</t>
-        </is>
-      </c>
-      <c r="E60">
-        <v>23</v>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Church Hill Intermediate School</t>
-        </is>
-      </c>
-      <c r="G60" s="2">
-        <v>45473</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61">
-        <v>2024</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Public</t>
-        </is>
-      </c>
-      <c r="C61">
-        <v>792</v>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Memphis - Shelby</t>
-        </is>
-      </c>
-      <c r="E61">
-        <v>2724</v>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>University High School</t>
-        </is>
-      </c>
-      <c r="G61" s="2">
-        <v>45473</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62">
-        <v>2024</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Public</t>
-        </is>
-      </c>
-      <c r="C62">
-        <v>792</v>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Memphis - Shelby</t>
-        </is>
-      </c>
-      <c r="E62">
-        <v>2726</v>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>University Middle School</t>
-        </is>
-      </c>
-      <c r="G62" s="2">
-        <v>45473</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63">
-        <v>2024</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Public</t>
-        </is>
-      </c>
-      <c r="C63">
-        <v>792</v>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Memphis - Shelby</t>
-        </is>
-      </c>
-      <c r="E63">
-        <v>2070</v>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Campus School</t>
-        </is>
-      </c>
-      <c r="G63" s="2">
         <v>45473</v>
       </c>
     </row>
